--- a/StructureDefinition-ext-R5-Evidence.certainty.xlsx
+++ b/StructureDefinition-ext-R5-Evidence.certainty.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `Evidence.certainty` 0..* `BackboneElement`
 *  R4B: `Evidence.certainty` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Evidence.certainty` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.certainty` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -141,7 +141,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Evidence</t>
   </si>
   <si>
     <t>ID</t>
@@ -341,7 +341,7 @@
   <si>
     <t>Element `Evidence.certainty.description` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
 Element `Evidence.certainty.description` is part of an existing definition because parent element `Evidence.certainty` requires a component extension (e.g., if this element is used as a content reference).
-Element `Evidence.certainty.description` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.certainty.description` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -425,7 +425,7 @@
   <si>
     <t>Element `Evidence.certainty.note` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
 Element `Evidence.certainty.note` is part of an existing definition because parent element `Evidence.certainty` requires a component extension (e.g., if this element is used as a content reference).
-Element `Evidence.certainty.note` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.certainty.note` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:note.id</t>
@@ -458,7 +458,7 @@
   <si>
     <t>Element `Evidence.certainty.type` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
 Element `Evidence.certainty.type` is part of an existing definition because parent element `Evidence.certainty` requires a component extension (e.g., if this element is used as a content reference).
-Element `Evidence.certainty.type` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.certainty.type` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -500,7 +500,7 @@
   <si>
     <t>Element `Evidence.certainty.rating` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
 Element `Evidence.certainty.rating` is part of an existing definition because parent element `Evidence.certainty` requires a component extension (e.g., if this element is used as a content reference).
-Element `Evidence.certainty.rating` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.certainty.rating` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:rating.id</t>
@@ -535,7 +535,7 @@
   <si>
     <t>Element `Evidence.certainty.rater` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
 Element `Evidence.certainty.rater` is part of an existing definition because parent element `Evidence.certainty` requires a component extension (e.g., if this element is used as a content reference).
-Element `Evidence.certainty.rater` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.certainty.rater` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:rater.id</t>
@@ -564,7 +564,7 @@
   <si>
     <t>Element `Evidence.certainty.subcomponent` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
 Element `Evidence.certainty.subcomponent` is part of an existing definition because parent element `Evidence.certainty` requires a component extension (e.g., if this element is used as a content reference).
-Element `Evidence.certainty.subcomponent` is mapped to FHIR R4 structure `Evidence`, but has no target element specified.</t>
+Element `Evidence.certainty.subcomponent` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:subcomponent.id</t>

--- a/StructureDefinition-ext-R5-Evidence.certainty.xlsx
+++ b/StructureDefinition-ext-R5-Evidence.certainty.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="185">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `Evidence.certainty` 0..* `BackboneElement`
 *  R4B: `Evidence.certainty` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Evidence.certainty` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.certainty` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -340,8 +340,7 @@
   </si>
   <si>
     <t>Element `Evidence.certainty.description` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
-Element `Evidence.certainty.description` is part of an existing definition because parent element `Evidence.certainty` requires a component extension (e.g., if this element is used as a content reference).
-Element `Evidence.certainty.description` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.certainty.description` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -388,6 +387,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.certainty.description</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -424,8 +426,7 @@
   </si>
   <si>
     <t>Element `Evidence.certainty.note` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
-Element `Evidence.certainty.note` is part of an existing definition because parent element `Evidence.certainty` requires a component extension (e.g., if this element is used as a content reference).
-Element `Evidence.certainty.note` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.certainty.note` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:note.id</t>
@@ -435,6 +436,9 @@
   </si>
   <si>
     <t>Extension.extension:note.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.certainty.note</t>
   </si>
   <si>
     <t>Extension.extension:note.value[x]</t>
@@ -457,8 +461,7 @@
   </si>
   <si>
     <t>Element `Evidence.certainty.type` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
-Element `Evidence.certainty.type` is part of an existing definition because parent element `Evidence.certainty` requires a component extension (e.g., if this element is used as a content reference).
-Element `Evidence.certainty.type` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.certainty.type` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -468,6 +471,9 @@
   </si>
   <si>
     <t>Extension.extension:type.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.certainty.type</t>
   </si>
   <si>
     <t>Extension.extension:type.value[x]</t>
@@ -499,8 +505,7 @@
   </si>
   <si>
     <t>Element `Evidence.certainty.rating` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
-Element `Evidence.certainty.rating` is part of an existing definition because parent element `Evidence.certainty` requires a component extension (e.g., if this element is used as a content reference).
-Element `Evidence.certainty.rating` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.certainty.rating` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:rating.id</t>
@@ -512,6 +517,9 @@
     <t>Extension.extension:rating.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.certainty.rating</t>
+  </si>
+  <si>
     <t>Extension.extension:rating.value[x]</t>
   </si>
   <si>
@@ -534,8 +542,7 @@
   </si>
   <si>
     <t>Element `Evidence.certainty.rater` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
-Element `Evidence.certainty.rater` is part of an existing definition because parent element `Evidence.certainty` requires a component extension (e.g., if this element is used as a content reference).
-Element `Evidence.certainty.rater` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.certainty.rater` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:rater.id</t>
@@ -547,6 +554,9 @@
     <t>Extension.extension:rater.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.certainty.rater</t>
+  </si>
+  <si>
     <t>Extension.extension:rater.value[x]</t>
   </si>
   <si>
@@ -563,8 +573,7 @@
   </si>
   <si>
     <t>Element `Evidence.certainty.subcomponent` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
-Element `Evidence.certainty.subcomponent` is part of an existing definition because parent element `Evidence.certainty` requires a component extension (e.g., if this element is used as a content reference).
-Element `Evidence.certainty.subcomponent` is will have a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+Element `Evidence.certainty.subcomponent` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:subcomponent.id</t>
@@ -926,7 +935,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="166.08203125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="125.96484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1732,7 +1741,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1774,7 +1783,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1789,15 +1798,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1820,7 +1829,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1877,7 +1886,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1889,21 +1898,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1928,14 +1937,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2004,7 +2013,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2107,7 +2116,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2212,7 +2221,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2255,7 +2264,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2297,7 +2306,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2312,15 +2321,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2343,13 +2352,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2400,7 +2409,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2412,21 +2421,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2451,14 +2460,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2527,7 +2536,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2630,7 +2639,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2735,7 +2744,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2778,7 +2787,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2820,7 +2829,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2835,15 +2844,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2866,13 +2875,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2899,13 +2908,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2923,7 +2932,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2935,21 +2944,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2974,14 +2983,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3050,7 +3059,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3153,7 +3162,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3258,7 +3267,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3301,7 +3310,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3343,7 +3352,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3358,15 +3367,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3389,13 +3398,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3422,13 +3431,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3446,7 +3455,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3458,21 +3467,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3497,14 +3506,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3573,7 +3582,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3676,7 +3685,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3781,7 +3790,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3824,7 +3833,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3866,7 +3875,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -3881,15 +3890,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3915,10 +3924,10 @@
         <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3969,7 +3978,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -3981,21 +3990,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4020,14 +4029,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4096,7 +4105,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4199,7 +4208,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4304,7 +4313,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4389,7 +4398,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -4404,15 +4413,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4435,13 +4444,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4492,7 +4501,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4504,18 +4513,18 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4597,7 +4606,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -4612,15 +4621,15 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4643,13 +4652,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4700,7 +4709,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -4712,10 +4721,10 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Evidence.certainty.xlsx
+++ b/StructureDefinition-ext-R5-Evidence.certainty.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -489,7 +489,7 @@
     <t>The aspect of quality, confidence, or certainty.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-certainty-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-certainty-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:rating</t>
@@ -526,7 +526,7 @@
     <t>The assessment of quality, confidence, or certainty.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-certainty-rating-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-certainty-rating-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:rater</t>
@@ -946,7 +946,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="42.17578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.2890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.79296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Evidence.certainty.xlsx
+++ b/StructureDefinition-ext-R5-Evidence.certainty.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="180">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -339,8 +339,7 @@
     <t>Textual description of certainty.</t>
   </si>
   <si>
-    <t>Element `Evidence.certainty.description` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
-Element `Evidence.certainty.description` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.certainty.description` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -387,9 +386,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.certainty.description</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -425,8 +421,7 @@
     <t>Footnotes and/or explanatory notes.</t>
   </si>
   <si>
-    <t>Element `Evidence.certainty.note` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
-Element `Evidence.certainty.note` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.certainty.note` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:note.id</t>
@@ -436,9 +431,6 @@
   </si>
   <si>
     <t>Extension.extension:note.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.certainty.note</t>
   </si>
   <si>
     <t>Extension.extension:note.value[x]</t>
@@ -460,8 +452,7 @@
     <t>Aspect of certainty being rated.</t>
   </si>
   <si>
-    <t>Element `Evidence.certainty.type` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
-Element `Evidence.certainty.type` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.certainty.type` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -471,9 +462,6 @@
   </si>
   <si>
     <t>Extension.extension:type.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.certainty.type</t>
   </si>
   <si>
     <t>Extension.extension:type.value[x]</t>
@@ -489,7 +477,7 @@
     <t>The aspect of quality, confidence, or certainty.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-certainty-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-certainty-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:rating</t>
@@ -504,8 +492,7 @@
     <t>Assessment or judgement of the aspect.</t>
   </si>
   <si>
-    <t>Element `Evidence.certainty.rating` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
-Element `Evidence.certainty.rating` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.certainty.rating` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:rating.id</t>
@@ -517,16 +504,13 @@
     <t>Extension.extension:rating.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.certainty.rating</t>
-  </si>
-  <si>
     <t>Extension.extension:rating.value[x]</t>
   </si>
   <si>
     <t>The assessment of quality, confidence, or certainty.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-certainty-rating-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-certainty-rating-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:rater</t>
@@ -541,8 +525,7 @@
     <t>Individual or group who did the rating.</t>
   </si>
   <si>
-    <t>Element `Evidence.certainty.rater` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
-Element `Evidence.certainty.rater` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.certainty.rater` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:rater.id</t>
@@ -554,9 +537,6 @@
     <t>Extension.extension:rater.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Evidence.certainty.rater</t>
-  </si>
-  <si>
     <t>Extension.extension:rater.value[x]</t>
   </si>
   <si>
@@ -572,8 +552,7 @@
     <t>A domain or subdomain of certainty.</t>
   </si>
   <si>
-    <t>Element `Evidence.certainty.subcomponent` is part of an existing definition because parent element `Evidence.certainty` requires a cross-version extension.
-Element `Evidence.certainty.subcomponent` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
+    <t>Element `Evidence.certainty.subcomponent` has a context of Evidence based on following the parent source element upwards and mapping to `Evidence`.</t>
   </si>
   <si>
     <t>Extension.extension:subcomponent.id</t>
@@ -935,7 +914,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="125.96484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="124.56640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -946,7 +925,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="42.17578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.79296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.20703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1741,72 +1720,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1829,7 +1808,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1886,33 +1865,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1937,14 +1916,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2013,7 +1992,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2116,7 +2095,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2221,7 +2200,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2264,7 +2243,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2306,30 +2285,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2352,13 +2331,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2409,33 +2388,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2460,14 +2439,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2536,7 +2515,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2639,7 +2618,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2744,7 +2723,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2787,7 +2766,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2829,30 +2808,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2875,13 +2854,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2908,13 +2887,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2932,33 +2911,33 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2983,14 +2962,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3059,7 +3038,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3162,7 +3141,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3267,7 +3246,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3310,7 +3289,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3352,30 +3331,30 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3398,13 +3377,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3431,13 +3410,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3455,33 +3434,33 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3506,14 +3485,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3582,7 +3561,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3685,7 +3664,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3790,7 +3769,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3833,7 +3812,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3875,30 +3854,30 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3924,10 +3903,10 @@
         <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3978,33 +3957,33 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4029,14 +4008,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4105,7 +4084,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4208,7 +4187,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4313,7 +4292,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4398,30 +4377,30 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4444,13 +4423,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4501,30 +4480,30 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4606,30 +4585,30 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4652,13 +4631,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4709,22 +4688,22 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK36" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
